--- a/設計書_打刻侍/50_単体テスト/エビデンス/単体テスト仕様書（R100）申請者一覧画面.xlsx
+++ b/設計書_打刻侍/50_単体テスト/エビデンス/単体テスト仕様書（R100）申請者一覧画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB640DE-C632-42FE-9098-7BCDE1F15EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD96D90E-75EA-4759-BCF2-F4D5DB175C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4500" yWindow="348" windowWidth="18900" windowHeight="11376" xr2:uid="{5779095B-1250-43E1-97BE-C76424BD43ED}"/>
+    <workbookView xWindow="9456" yWindow="-96" windowWidth="18900" windowHeight="11376" xr2:uid="{5779095B-1250-43E1-97BE-C76424BD43ED}"/>
   </bookViews>
   <sheets>
     <sheet name="1回目" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>単体テストエビデンス</t>
     <rPh sb="0" eb="2">
@@ -127,6 +127,67 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ケース58</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース63</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更詳細ボタンをクリック</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンコウショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再申請ボタンをクリック</t>
+    <rPh sb="0" eb="3">
+      <t>サイシンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストにstamp_rev_idを保存</t>
+    <rPh sb="19" eb="21">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストにatt_status_idを保存</t>
+    <rPh sb="20" eb="22">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストにstamp_rev_req_idを保存</t>
+    <rPh sb="23" eb="25">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストにmonth_req_idを保存</t>
+    <rPh sb="19" eb="21">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータスが3：キャンセルに更新</t>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -149,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +220,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,11 +244,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,13 +577,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>206829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>221048</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -557,13 +627,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>100507</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -607,13 +677,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>500743</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>65314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>555172</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -671,13 +741,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>500743</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>206829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>555172</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -735,13 +805,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>202292</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -785,13 +855,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>262</xdr:row>
       <xdr:rowOff>122285</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -835,13 +905,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>516835</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>112643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>571264</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -899,13 +969,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>510989</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>53788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>565418</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>207357</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -963,13 +1033,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>263</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>270</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>51385</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1013,13 +1083,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>261</xdr:row>
+      <xdr:row>274</xdr:row>
       <xdr:rowOff>165821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1063,13 +1133,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>511628</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>97972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>566057</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>271</xdr:row>
       <xdr:rowOff>43544</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1127,13 +1197,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>566057</xdr:colOff>
-      <xdr:row>265</xdr:row>
+      <xdr:row>278</xdr:row>
       <xdr:rowOff>119744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>620486</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>65316</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1191,13 +1261,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>277</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>95421</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1241,13 +1311,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>131166</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1291,13 +1361,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>502023</xdr:colOff>
-      <xdr:row>274</xdr:row>
+      <xdr:row>287</xdr:row>
       <xdr:rowOff>71717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>556452</xdr:colOff>
-      <xdr:row>274</xdr:row>
+      <xdr:row>287</xdr:row>
       <xdr:rowOff>225286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1355,13 +1425,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>280</xdr:row>
+      <xdr:row>293</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>549729</xdr:colOff>
-      <xdr:row>280</xdr:row>
+      <xdr:row>293</xdr:row>
       <xdr:rowOff>214529</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1419,21 +1489,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>33485</xdr:rowOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>226683</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="図 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8C83928-3F0D-D2D3-D72B-3AD345BAEBC1}"/>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF4CB49-CADD-4FE7-B511-7153ECEC7C71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,8 +1525,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="674914" y="35204400"/>
-          <a:ext cx="7772400" cy="5977085"/>
+          <a:off x="674914" y="79324200"/>
+          <a:ext cx="7772400" cy="5941683"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1469,21 +1539,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>440325</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>115273</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>120796</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>123906</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="図 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74595CDA-1778-D516-F140-D9D2D407757B}"/>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86DCB4B1-77B9-4BB4-93EE-39DB8BE425C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1505,8 +1575,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="674914" y="41376600"/>
-          <a:ext cx="5839640" cy="6973273"/>
+          <a:off x="674914" y="85725000"/>
+          <a:ext cx="7544853" cy="581106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1518,22 +1588,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>32656</xdr:rowOff>
+      <xdr:colOff>511628</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>653143</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:colOff>566057</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="正方形/長方形 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8209D89D-277C-477C-8C66-AEAEB5E0878A}"/>
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9701A589-DC1F-430B-B4EB-D43D77B73D1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1541,8 +1611,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="598714" y="36380056"/>
-          <a:ext cx="8153400" cy="293915"/>
+          <a:off x="511628" y="83395457"/>
+          <a:ext cx="8153400" cy="348343"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1579,25 +1649,92 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>21770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>511629</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>141513</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4918BA07-158B-4446-AEF6-941DDC624F4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5279571" y="85746770"/>
+          <a:ext cx="2656115" cy="576943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>289</xdr:row>
+      <xdr:row>337</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>315</xdr:row>
-      <xdr:rowOff>33485</xdr:rowOff>
+      <xdr:row>362</xdr:row>
+      <xdr:rowOff>226683</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="図 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC506FC6-310B-5EAE-73C0-62CE3C480847}"/>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{667DDACA-0B6B-4825-8977-B937929C3CCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,8 +1756,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="674914" y="66065400"/>
-          <a:ext cx="7772400" cy="5977085"/>
+          <a:off x="674914" y="87325200"/>
+          <a:ext cx="7772400" cy="5941683"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1631,23 +1768,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>316</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>592746</xdr:colOff>
-      <xdr:row>346</xdr:row>
-      <xdr:rowOff>115273</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>664028</xdr:colOff>
+      <xdr:row>365</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>337457</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>116114</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="図 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48440BE8-B443-179A-14AF-30C8CF998D62}"/>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{601F046E-A9D3-4B66-94C3-56FFFF231EC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1669,8 +1806,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="674914" y="72237600"/>
-          <a:ext cx="5992061" cy="6973273"/>
+          <a:off x="664028" y="93791314"/>
+          <a:ext cx="7772400" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1681,23 +1818,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>500742</xdr:colOff>
-      <xdr:row>310</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>555171</xdr:colOff>
-      <xdr:row>312</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>402771</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="正方形/長方形 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9701A589-DC1F-430B-B4EB-D43D77B73D1D}"/>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{279A9F0A-9FBC-4DF5-A08D-132647A52671}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1705,7 +1842,74 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="500742" y="71029286"/>
+          <a:off x="4452257" y="93660685"/>
+          <a:ext cx="2656115" cy="576943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>195942</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9781432-EF11-43E7-9DE0-4B1261AD515D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="544286" y="91973399"/>
           <a:ext cx="8153400" cy="348343"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1738,6 +1942,468 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>116774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66D97ACB-AA40-AC89-86DA-406D422F12BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="35258829"/>
+          <a:ext cx="7772400" cy="6005945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19372</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>226202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>157765</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>92929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F634E6EA-72E7-238A-40E7-3A99393D265F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="694286" y="41831402"/>
+          <a:ext cx="6887536" cy="552527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27857</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>38744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>603006</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>10261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B19C81A-317F-3283-A440-1F7D9E37F597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="702771" y="50787944"/>
+          <a:ext cx="6649378" cy="657317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>587828</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>195942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>642257</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8209D89D-277C-477C-8C66-AEAEB5E0878A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="587828" y="37914942"/>
+          <a:ext cx="8153400" cy="293915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>84116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97CB55FC-F493-4B20-8C3E-86AB29E1EB09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="44141571"/>
+          <a:ext cx="7772400" cy="6005945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>642257</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33FA0683-1082-476C-9204-23A4065E93EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="642257" y="47058943"/>
+          <a:ext cx="8153400" cy="293915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185057</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>141515</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034C4AC4-3258-4D5A-BEF7-432FD5EE6DD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4909457" y="50868943"/>
+          <a:ext cx="2656115" cy="576943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>443915</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>8488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400373</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>128231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A552670-0D19-45CB-A74C-B926CC71C636}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4493401" y="41842288"/>
+          <a:ext cx="2656115" cy="576943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2063,10 +2729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E34B698-9405-4780-A0B7-84EC4972643F}">
-  <dimension ref="A1:D289"/>
+  <dimension ref="A1:M365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A345" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q160" sqref="Q160"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2126,49 +2792,110 @@
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A215" s="1" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B183" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A191" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" s="2"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B193" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B222" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A228" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1" t="s">
+      <c r="B228" s="1"/>
+      <c r="C228" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D215" s="1"/>
+      <c r="D228" s="1"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B217" t="s">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B230" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B239" t="s">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B252" t="s">
         <v>8</v>
       </c>
+      <c r="G252" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B253" t="s">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B266" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B273" t="s">
+    <row r="286" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B286" t="s">
         <v>10</v>
       </c>
+      <c r="G286" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A287" s="1" t="s">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A300" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B287" s="1"/>
-      <c r="C287" s="1" t="s">
+      <c r="B300" s="1"/>
+      <c r="C300" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D287" s="1"/>
+      <c r="D300" s="1"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B289" t="s">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B302" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B330" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A335" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D335" s="1"/>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M336" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B337" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B365" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/設計書_打刻侍/50_単体テスト/エビデンス/単体テスト仕様書（R100）申請者一覧画面.xlsx
+++ b/設計書_打刻侍/50_単体テスト/エビデンス/単体テスト仕様書（R100）申請者一覧画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD96D90E-75EA-4759-BCF2-F4D5DB175C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D060927-0459-42FF-9D76-2C8C2A4B4863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9456" yWindow="-96" windowWidth="18900" windowHeight="11376" xr2:uid="{5779095B-1250-43E1-97BE-C76424BD43ED}"/>
+    <workbookView xWindow="11988" yWindow="156" windowWidth="11964" windowHeight="11376" xr2:uid="{5779095B-1250-43E1-97BE-C76424BD43ED}"/>
   </bookViews>
   <sheets>
     <sheet name="1回目" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>単体テストエビデンス</t>
     <rPh sb="0" eb="2">
@@ -185,6 +185,53 @@
     <t>ステータスが3：キャンセルに更新</t>
     <rPh sb="14" eb="16">
       <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース23、39申請一覧を表示する</t>
+    <rPh sb="8" eb="12">
+      <t>シンセイイチラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース53、54、55　ページング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース36、37、38　ページング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース24～35　表示</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース40～52　表示</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース66</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタンをクリック</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -276,15 +323,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>305778</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>163032</xdr:rowOff>
+      <xdr:colOff>338435</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>10633</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -313,8 +360,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="665018" y="942109"/>
-          <a:ext cx="6955960" cy="8170959"/>
+          <a:off x="707571" y="10591801"/>
+          <a:ext cx="7054921" cy="7935432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -327,13 +374,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>364060</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>48738</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -377,13 +424,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>516481</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>85592</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -577,13 +624,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>206829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>221048</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -627,13 +674,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>100507</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -677,13 +724,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>500743</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>65314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>555172</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -741,13 +788,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>500743</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>206829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>555172</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -805,13 +852,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>262</xdr:row>
       <xdr:rowOff>202292</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -855,13 +902,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>268</xdr:row>
       <xdr:rowOff>122285</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -905,13 +952,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>516835</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>112643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>571264</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -969,13 +1016,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>510989</xdr:colOff>
-      <xdr:row>259</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>53788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>565418</xdr:colOff>
-      <xdr:row>259</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>207357</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1033,13 +1080,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>51385</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1083,13 +1130,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>266</xdr:row>
+      <xdr:row>272</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>274</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>165821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1133,13 +1180,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>511628</xdr:colOff>
-      <xdr:row>269</xdr:row>
+      <xdr:row>275</xdr:row>
       <xdr:rowOff>97972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>566057</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>277</xdr:row>
       <xdr:rowOff>43544</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1197,13 +1244,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>566057</xdr:colOff>
-      <xdr:row>278</xdr:row>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>119744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>620486</xdr:colOff>
-      <xdr:row>280</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>65316</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1261,13 +1308,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>286</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>290</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>95421</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1311,13 +1358,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>292</xdr:row>
+      <xdr:row>298</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>131166</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1361,13 +1408,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>502023</xdr:colOff>
-      <xdr:row>287</xdr:row>
+      <xdr:row>293</xdr:row>
       <xdr:rowOff>71717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>556452</xdr:colOff>
-      <xdr:row>287</xdr:row>
+      <xdr:row>293</xdr:row>
       <xdr:rowOff>225286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1425,13 +1472,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>549729</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>214529</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1489,13 +1536,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>302</xdr:row>
+      <xdr:row>308</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>327</xdr:row>
+      <xdr:row>333</xdr:row>
       <xdr:rowOff>226683</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1539,13 +1586,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>330</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>120796</xdr:colOff>
-      <xdr:row>332</xdr:row>
+      <xdr:row>338</xdr:row>
       <xdr:rowOff>123906</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1589,13 +1636,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>511628</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>325</xdr:row>
       <xdr:rowOff>185057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>566057</xdr:colOff>
-      <xdr:row>321</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1653,13 +1700,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>555171</xdr:colOff>
-      <xdr:row>330</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>21770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>511629</xdr:colOff>
-      <xdr:row>332</xdr:row>
+      <xdr:row>338</xdr:row>
       <xdr:rowOff>141513</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1720,13 +1767,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>337</xdr:row>
+      <xdr:row>343</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>362</xdr:row>
+      <xdr:row>368</xdr:row>
       <xdr:rowOff>226683</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1770,13 +1817,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>664028</xdr:colOff>
-      <xdr:row>365</xdr:row>
+      <xdr:row>371</xdr:row>
       <xdr:rowOff>65314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>337457</xdr:colOff>
-      <xdr:row>367</xdr:row>
+      <xdr:row>373</xdr:row>
       <xdr:rowOff>116114</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1820,13 +1867,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>402771</xdr:colOff>
-      <xdr:row>364</xdr:row>
+      <xdr:row>370</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>359229</xdr:colOff>
-      <xdr:row>367</xdr:row>
+      <xdr:row>373</xdr:row>
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1887,13 +1934,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>357</xdr:row>
+      <xdr:row>363</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>598715</xdr:colOff>
-      <xdr:row>358</xdr:row>
+      <xdr:row>364</xdr:row>
       <xdr:rowOff>195942</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1951,13 +1998,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>359229</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>116774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2001,13 +2048,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19372</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>226202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>157765</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>92929</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2051,13 +2098,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>27857</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>38744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>603006</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>10261</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2101,13 +2148,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>587828</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>195942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>642257</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2165,13 +2212,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>21771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>359229</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>84116</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2215,13 +2262,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>642257</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>195943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>32658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2279,13 +2326,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>185057</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>119743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>141515</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2346,13 +2393,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>443915</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>8488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>400373</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>128231</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2407,6 +2454,56 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>379</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>403</xdr:row>
+      <xdr:rowOff>107213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EC39C6-BAAD-464D-95EE-485CC871FB4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674914" y="86639400"/>
+          <a:ext cx="7772400" cy="5593613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2729,10 +2826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E34B698-9405-4780-A0B7-84EC4972643F}">
-  <dimension ref="A1:M365"/>
+  <dimension ref="A1:Q379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A379" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N407" sqref="N407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2777,125 +2874,170 @@
       </c>
       <c r="D45" s="1"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A152" s="1" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="Q82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B87" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B124" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A158" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1" t="s">
+      <c r="B158" s="1"/>
+      <c r="C158" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D152" s="1"/>
+      <c r="D158" s="1"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B154" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B160" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B183" t="s">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B189" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A191" s="2" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A197" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2" t="s">
+      <c r="B197" s="2"/>
+      <c r="C197" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D191" s="2"/>
+      <c r="D197" s="2"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B193" t="s">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B199" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B222" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A228" s="1" t="s">
+      <c r="B228" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A234" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1" t="s">
+      <c r="B234" s="1"/>
+      <c r="C234" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D228" s="1"/>
+      <c r="D234" s="1"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B230" t="s">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B236" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B252" t="s">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B258" t="s">
         <v>8</v>
       </c>
-      <c r="G252" t="s">
+      <c r="G258" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B266" t="s">
+    <row r="272" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B272" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B286" t="s">
+    <row r="292" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B292" t="s">
         <v>10</v>
       </c>
-      <c r="G286" t="s">
+      <c r="G292" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A300" s="1" t="s">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A306" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B300" s="1"/>
-      <c r="C300" s="1" t="s">
+      <c r="B306" s="1"/>
+      <c r="C306" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D300" s="1"/>
+      <c r="D306" s="1"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B302" t="s">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B308" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B330" t="s">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B336" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A335" s="1" t="s">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A341" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B335" s="1"/>
-      <c r="C335" s="1" t="s">
+      <c r="B341" s="1"/>
+      <c r="C341" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D335" s="1"/>
+      <c r="D341" s="1"/>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M336" t="s">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M342" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B337" t="s">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B343" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B365" t="s">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B371" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A377" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B377" s="1"/>
+      <c r="C377" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D377" s="1"/>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B379" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/設計書_打刻侍/50_単体テスト/エビデンス/単体テスト仕様書（R100）申請者一覧画面.xlsx
+++ b/設計書_打刻侍/50_単体テスト/エビデンス/単体テスト仕様書（R100）申請者一覧画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D060927-0459-42FF-9D76-2C8C2A4B4863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4285077-96CE-49B8-A4DC-3BA5F642FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11988" yWindow="156" windowWidth="11964" windowHeight="11376" xr2:uid="{5779095B-1250-43E1-97BE-C76424BD43ED}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{5779095B-1250-43E1-97BE-C76424BD43ED}"/>
   </bookViews>
   <sheets>
     <sheet name="1回目" sheetId="1" r:id="rId1"/>
@@ -524,21 +524,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>206829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>53062</xdr:rowOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>221048</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E067CAF9-8639-0572-9230-8F1C38282AFD}"/>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F31FEF7C-0044-A3A1-EC49-B4B5C1AC8D8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -560,8 +560,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="674914" y="1371600"/>
-          <a:ext cx="7772400" cy="510262"/>
+          <a:off x="674914" y="36782829"/>
+          <a:ext cx="7772400" cy="2300219"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -574,21 +574,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>497483</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>105268</xdr:rowOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>100507</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F911C8DC-3B4C-1468-BA89-79BFC968DC23}"/>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C977666A-FFC1-754A-36F6-5D4CA95F102E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -598,106 +598,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="674914" y="2057400"/>
-          <a:ext cx="5896798" cy="3534268"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>206829</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>245</xdr:row>
-      <xdr:rowOff>221048</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F31FEF7C-0044-A3A1-EC49-B4B5C1AC8D8D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="674914" y="36782829"/>
-          <a:ext cx="7772400" cy="2300219"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>246</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>255</xdr:row>
-      <xdr:rowOff>100507</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C977666A-FFC1-754A-36F6-5D4CA95F102E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -875,7 +775,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -925,7 +825,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1103,7 +1003,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1153,7 +1053,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1331,7 +1231,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1381,7 +1281,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1559,7 +1459,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1609,7 +1509,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1790,7 +1690,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1840,7 +1740,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2021,7 +1921,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2071,7 +1971,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2121,7 +2021,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2235,7 +2135,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2483,7 +2383,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2498,6 +2398,56 @@
         <a:xfrm>
           <a:off x="674914" y="86639400"/>
           <a:ext cx="7772400" cy="5593613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>653142</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>10888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>346971</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>185058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582E5B29-E367-9A5D-1A3F-68DC2D92C5CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="653142" y="1153888"/>
+          <a:ext cx="9817543" cy="4746170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2828,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E34B698-9405-4780-A0B7-84EC4972643F}">
   <dimension ref="A1:Q379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N407" sqref="N407"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/設計書_打刻侍/50_単体テスト/エビデンス/単体テスト仕様書（R100）申請者一覧画面.xlsx
+++ b/設計書_打刻侍/50_単体テスト/エビデンス/単体テスト仕様書（R100）申請者一覧画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A67BC74-B923-4651-AD0C-E6400FDA6A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C7272D-AAB8-498A-96CB-F47B078A9A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{5779095B-1250-43E1-97BE-C76424BD43ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5779095B-1250-43E1-97BE-C76424BD43ED}"/>
   </bookViews>
   <sheets>
     <sheet name="1回目" sheetId="1" r:id="rId1"/>
@@ -3331,6 +3331,474 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>623456</xdr:colOff>
+      <xdr:row>465</xdr:row>
+      <xdr:rowOff>180109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>306780</xdr:colOff>
+      <xdr:row>479</xdr:row>
+      <xdr:rowOff>78695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E47FD0B-F36C-44AE-A5EE-A99BC4746FC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9268692" y="109700291"/>
+          <a:ext cx="7663543" cy="3195968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>637311</xdr:colOff>
+      <xdr:row>489</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>320635</xdr:colOff>
+      <xdr:row>509</xdr:row>
+      <xdr:rowOff>61828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A285613A-0D64-4539-9E80-0726A9E7942F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9282547" y="115311381"/>
+          <a:ext cx="7663543" cy="4633829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>483920</xdr:colOff>
+      <xdr:row>475</xdr:row>
+      <xdr:rowOff>157348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>473035</xdr:colOff>
+      <xdr:row>478</xdr:row>
+      <xdr:rowOff>195944</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D74514-05A3-4037-B8F4-D37C53C3D7F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9257806" y="108753234"/>
+          <a:ext cx="8088086" cy="724396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>471056</xdr:colOff>
+      <xdr:row>504</xdr:row>
+      <xdr:rowOff>12864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>460170</xdr:colOff>
+      <xdr:row>508</xdr:row>
+      <xdr:rowOff>167243</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C15E3D-BE51-4320-B7A2-9F57A92DA547}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9116292" y="118718609"/>
+          <a:ext cx="7969333" cy="1096489"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>13854</xdr:colOff>
+      <xdr:row>519</xdr:row>
+      <xdr:rowOff>193963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>362197</xdr:colOff>
+      <xdr:row>533</xdr:row>
+      <xdr:rowOff>92550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F068FB-9567-4047-8F37-B4B401E71771}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9324109" y="122432618"/>
+          <a:ext cx="7663543" cy="3195968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>27709</xdr:colOff>
+      <xdr:row>543</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>376052</xdr:colOff>
+      <xdr:row>563</xdr:row>
+      <xdr:rowOff>75682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7356A33-2443-4CF2-BC4E-8990C5EE23CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9337964" y="128043708"/>
+          <a:ext cx="7663543" cy="4633829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>623455</xdr:colOff>
+      <xdr:row>520</xdr:row>
+      <xdr:rowOff>180109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>612569</xdr:colOff>
+      <xdr:row>525</xdr:row>
+      <xdr:rowOff>98962</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{381056B9-454D-45C8-96F1-FE027B5F0F4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9268691" y="122654291"/>
+          <a:ext cx="7969333" cy="1096489"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>538698</xdr:colOff>
+      <xdr:row>544</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>527812</xdr:colOff>
+      <xdr:row>557</xdr:row>
+      <xdr:rowOff>215153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A36EE5D-420C-46CC-A094-03ACBC9214DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9279286" y="126866073"/>
+          <a:ext cx="8057350" cy="3175951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3658,8 +4126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E34B698-9405-4780-A0B7-84EC4972643F}">
   <dimension ref="A1:Q572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O392" sqref="O392"/>
+    <sheetView tabSelected="1" topLeftCell="A512" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AA558" sqref="AA558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/設計書_打刻侍/50_単体テスト/エビデンス/単体テスト仕様書（R100）申請者一覧画面.xlsx
+++ b/設計書_打刻侍/50_単体テスト/エビデンス/単体テスト仕様書（R100）申請者一覧画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C7272D-AAB8-498A-96CB-F47B078A9A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BAC40B-19C2-44EA-BA3B-A45EDD21F3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5779095B-1250-43E1-97BE-C76424BD43ED}"/>
+    <workbookView xWindow="10920" yWindow="624" windowWidth="11964" windowHeight="11376" xr2:uid="{5779095B-1250-43E1-97BE-C76424BD43ED}"/>
   </bookViews>
   <sheets>
     <sheet name="1回目" sheetId="1" r:id="rId1"/>
@@ -590,56 +590,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>116338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92094036-32C8-DE7A-046C-4FA7C6EB386D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="665018" y="1177636"/>
-          <a:ext cx="7772400" cy="2942666"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -731,7 +681,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -781,7 +731,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -962,7 +912,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1012,7 +962,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1193,7 +1143,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1243,7 +1193,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1427,7 +1377,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1469,6 +1419,56 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582E5B29-E367-9A5D-1A3F-68DC2D92C5CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="653142" y="1153888"/>
+          <a:ext cx="9817543" cy="4746170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>91653</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9188E416-34DC-DBF0-550A-93169E082722}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1478,56 +1478,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="653142" y="1153888"/>
-          <a:ext cx="9817543" cy="4746170"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>91653</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9188E416-34DC-DBF0-550A-93169E082722}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1641,7 +1591,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1683,6 +1633,56 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7CAC91C-DF0F-BF9F-3A20-A469E67444DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674914" y="29271686"/>
+          <a:ext cx="7772400" cy="3105914"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>158811</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E63D6E-C504-178E-C7C9-B1F7D1378EBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1704,8 +1704,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="674914" y="29271686"/>
-          <a:ext cx="7772400" cy="3105914"/>
+          <a:off x="674914" y="32929286"/>
+          <a:ext cx="7772400" cy="4502211"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1718,21 +1718,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>158811</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>573694</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>48748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="図 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E63D6E-C504-178E-C7C9-B1F7D1378EBC}"/>
+        <xdr:cNvPr id="55" name="図 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDEFCC57-60B6-4311-949A-2277639EABA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1741,57 +1741,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="674914" y="32929286"/>
-          <a:ext cx="7772400" cy="4502211"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>573694</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>48748</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="図 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDEFCC57-60B6-4311-949A-2277639EABA4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1905,7 +1855,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2019,7 +1969,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2133,7 +2083,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2247,7 +2197,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2297,7 +2247,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2481,7 +2431,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2531,7 +2481,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2715,7 +2665,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2829,7 +2779,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2943,7 +2893,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3185,7 +3135,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3363,7 +3313,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3413,7 +3363,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3597,7 +3547,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3647,7 +3597,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3802,6 +3752,56 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>376518</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>230493</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A65D316-E295-6596-8EF2-9BFABFAB5F20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="672353" y="6759388"/>
+          <a:ext cx="7772400" cy="2794399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4126,8 +4126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E34B698-9405-4780-A0B7-84EC4972643F}">
   <dimension ref="A1:Q572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A512" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AA558" sqref="AA558"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
